--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV116-001 - Jenis Porto - Reksadana Tambah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV116-001 - Jenis Porto - Reksadana Tambah Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054229CB-B761-425F-BF35-0E01988B98D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113A1A94-5A53-4261-917A-715286447FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,13 +109,13 @@
     <t>Tambah dapat dilakukan dengan baik</t>
   </si>
   <si>
-    <t>Reksadana Pasar Uang</t>
-  </si>
-  <si>
     <t>1 : Lanjutkan ke Verifikasi</t>
   </si>
   <si>
     <t>DATA UNTUK DIVERIFIKASI</t>
+  </si>
+  <si>
+    <t>Reksadana Campuran Konvensional</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,13 +628,13 @@
         <v>20</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
